--- a/biology/Zoologie/Erionota_thrax/Erionota_thrax.xlsx
+++ b/biology/Zoologie/Erionota_thrax/Erionota_thrax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erionota thrax est un insecte lépidoptère de la famille des Hesperiidae, de la sous-famille des Hesperiinae  et du genre Erionota .
 </t>
@@ -511,16 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Erionota thrax a été décrit par Carl von Linné en 1767 sous le nom de Papilio thrax[1].
-Noms vernaculaires
-Erionota thrax se nomme en anglais Palm Redeye et Erionota thrax thrax Banana Skipper[1].
-Sous-espèces
-Erionota thrax thrax du nord-est de l'Inde au nord des Philippines.
-Erionota thrax alexandra (De Long et Treadaway, 1993) dans l'ile de Tuzon au nord des Philippines.
-Erionota thrax hasdrubal (Evans, 1949) en Indonésie dans le nord des Moluques.
-Erionota thrax mindana; dans le centre et le sud des Philippines[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erionota thrax a été décrit par Carl von Linné en 1767 sous le nom de Papilio thrax.
+</t>
         </is>
       </c>
     </row>
@@ -545,14 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon marron dont le dessus des ailes antérieures est orné de trois taches jaunes, d'une envergure de 50 mm à 70 mm, au gros corps marron avec des yeux rouges.
-Chenille
-L'œuf, jaune pâle est pondu en groupe et il éclot en 5 à 8 jours. D'une feuille la chenille se fabrique un cône. Elle est de couleur vert pâle avec une tête noire. Le cycle dure 3 à 4 semaines[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erionota thrax se nomme en anglais Palm Redeye et Erionota thrax thrax Banana Skipper.
 </t>
         </is>
       </c>
@@ -578,14 +590,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de la chenille sont des Musacées dont Musa paradisiaca la banane plantain et Musa textilis,  Cocos nucifera le cocotier, Arenga pinnata le palmier à sucre, Calamus trachycoleus, Elaeis guineensis le palmier à huile africain et Metroxylon sagu le palmier sagoutier et des plantes ornementales du genre Heliconia[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Erionota thrax thrax du nord-est de l'Inde au nord des Philippines.
+Erionota thrax alexandra (De Long et Treadaway, 1993) dans l'ile de Tuzon au nord des Philippines.
+Erionota thrax hasdrubal (Evans, 1949) en Indonésie dans le nord des Moluques.
+Erionota thrax mindana; dans le centre et le sud des Philippines.</t>
         </is>
       </c>
     </row>
@@ -610,18 +629,232 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon marron dont le dessus des ailes antérieures est orné de trois taches jaunes, d'une envergure de 50 mm à 70 mm, au gros corps marron avec des yeux rouges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erionota_thrax</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erionota_thrax</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'œuf, jaune pâle est pondu en groupe et il éclot en 5 à 8 jours. D'une feuille la chenille se fabrique un cône. Elle est de couleur vert pâle avec une tête noire. Le cycle dure 3 à 4 semaines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Erionota_thrax</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erionota_thrax</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Musacées dont Musa paradisiaca la banane plantain et Musa textilis,  Cocos nucifera le cocotier, Arenga pinnata le palmier à sucre, Calamus trachycoleus, Elaeis guineensis le palmier à huile africain et Metroxylon sagu le palmier sagoutier et des plantes ornementales du genre Heliconia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Erionota_thrax</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erionota_thrax</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erionota thrax est présent en Asie en Mandchourie, Inde, Birmanie, Malaisie. Erionota thrax thrax est présent en Birmanie, au Laos, au Viet-Nam, en Malaisie, à Bornéo, au Sulawesi et en Nouvelle-Guinée[1].
-Introductions
-Il a été introduit dans l'île de Guam en 1956, en Papouasie-Nouvelle-Guinée en 1960, dans l'île Maurice en 1970 et à Hawaii en 1973[2].
-Biotope
-Il vole toute l'année en plusieurs générations.
-Protection
-Il défolie les bananiers et de ce fait est considéré comme un ravageur[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erionota thrax est présent en Asie en Mandchourie, Inde, Birmanie, Malaisie. Erionota thrax thrax est présent en Birmanie, au Laos, au Viet-Nam, en Malaisie, à Bornéo, au Sulawesi et en Nouvelle-Guinée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Erionota_thrax</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erionota_thrax</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Introductions</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été introduit dans l'île de Guam en 1956, en Papouasie-Nouvelle-Guinée en 1960, dans l'île Maurice en 1970 et à Hawaii en 1973.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Erionota_thrax</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erionota_thrax</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année en plusieurs générations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Erionota_thrax</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erionota_thrax</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il défolie les bananiers et de ce fait est considéré comme un ravageur.
 </t>
         </is>
       </c>
